--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332FA3B-0DA0-420C-B859-E3FE121F8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A377FA-5AB7-4CE8-A058-B288DDD9B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
-    <t>projeto</t>
-  </si>
-  <si>
     <t>anexo</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>valor_iniciativa</t>
+  </si>
+  <si>
+    <t>iniciativa</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,16 +654,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -671,10 +671,10 @@
         <v>9288130</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5">
         <v>1195796000</v>
@@ -685,10 +685,10 @@
         <v>9288130</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>450000000</v>
@@ -699,10 +699,10 @@
         <v>9288132</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>270000000</v>
@@ -713,10 +713,10 @@
         <v>9288133</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>776000000</v>
@@ -727,10 +727,10 @@
         <v>9288134</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
         <v>118860000</v>
@@ -741,10 +741,10 @@
         <v>9288135</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>1345000</v>
@@ -755,10 +755,10 @@
         <v>9288136</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>111480000</v>
@@ -769,10 +769,10 @@
         <v>9288137</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5">
         <v>98100000</v>
@@ -783,10 +783,10 @@
         <v>9288138</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
         <v>38614000</v>
@@ -797,10 +797,10 @@
         <v>9288139</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
         <v>4400000</v>
@@ -811,10 +811,10 @@
         <v>9288141</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5">
         <v>500000</v>
@@ -825,10 +825,10 @@
         <v>9288142</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5">
         <v>36712000</v>
@@ -839,10 +839,10 @@
         <v>9288143</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
         <v>728000</v>
@@ -853,10 +853,10 @@
         <v>9288144</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5">
         <v>49000000</v>
@@ -867,10 +867,10 @@
         <v>9288145</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="5">
         <v>45345000</v>
@@ -881,10 +881,10 @@
         <v>9288147</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5">
         <v>14817323</v>
@@ -895,10 +895,10 @@
         <v>9288148</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5">
         <v>4000000</v>
@@ -909,10 +909,10 @@
         <v>9288149</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5">
         <v>5000000</v>
@@ -923,10 +923,10 @@
         <v>9288150</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5">
         <v>10671300</v>
@@ -937,10 +937,10 @@
         <v>9288152</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5">
         <v>15130000</v>
@@ -951,10 +951,10 @@
         <v>9288153</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5">
         <v>3000000</v>
@@ -965,10 +965,10 @@
         <v>9288154</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5">
         <v>650000</v>
@@ -979,10 +979,10 @@
         <v>9288155</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5">
         <v>5550438.4000000004</v>
@@ -993,10 +993,10 @@
         <v>9288167</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5">
         <v>3773400</v>
@@ -1007,10 +1007,10 @@
         <v>9288168</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5">
         <v>130000000</v>
@@ -1021,10 +1021,10 @@
         <v>9288169</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5">
         <v>16112602.23</v>
@@ -1035,10 +1035,10 @@
         <v>9288176</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5">
         <v>40729352.109999999</v>
@@ -1049,10 +1049,10 @@
         <v>9288177</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>9288178</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="5">
         <v>253000000</v>
@@ -1077,10 +1077,10 @@
         <v>9288179</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="5">
         <v>45000000</v>
@@ -1091,10 +1091,10 @@
         <v>9288180</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="5">
         <v>3072030000</v>
@@ -1105,10 +1105,10 @@
         <v>9288181</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="5">
         <v>75352000</v>
@@ -1120,10 +1120,10 @@
         <v>9288182</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="5">
         <v>7000000</v>
@@ -1134,10 +1134,10 @@
         <v>9288183</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="5">
         <v>9302249.2699999996</v>
@@ -1148,10 +1148,10 @@
         <v>9288185</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="5">
         <v>2000000</v>
@@ -1162,10 +1162,10 @@
         <v>9288186</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="5">
         <v>3000000</v>
@@ -1176,10 +1176,10 @@
         <v>9288187</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="5">
         <v>36000000</v>
@@ -1190,10 +1190,10 @@
         <v>9288188</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="5">
         <v>8647600</v>
@@ -1204,10 +1204,10 @@
         <v>9288189</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="5">
         <v>300000</v>
@@ -1218,10 +1218,10 @@
         <v>9288190</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5">
         <v>100000000</v>
@@ -1232,10 +1232,10 @@
         <v>9288191</v>
       </c>
       <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
         <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
       </c>
       <c r="D42" s="5">
         <v>210000000</v>
@@ -1246,10 +1246,10 @@
         <v>9288192</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="5">
         <v>100000000</v>
@@ -1260,10 +1260,10 @@
         <v>9288193</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="5">
         <v>3900000</v>
@@ -1274,10 +1274,10 @@
         <v>9288194</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="5">
         <v>3600000</v>
@@ -1288,10 +1288,10 @@
         <v>9288195</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="5">
         <v>749679</v>
@@ -1302,10 +1302,10 @@
         <v>9288196</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="5">
         <v>42412000</v>
@@ -1316,10 +1316,10 @@
         <v>9288198</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="5">
         <v>986059044</v>
@@ -1330,10 +1330,10 @@
         <v>9288210</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="5">
         <v>2500000</v>
@@ -1344,10 +1344,10 @@
         <v>9288211</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="5">
         <v>3200000</v>
@@ -1358,10 +1358,10 @@
         <v>9288212</v>
       </c>
       <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
         <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="5">
         <v>2427295557.9000001</v>
@@ -1372,10 +1372,10 @@
         <v>9288213</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="5">
         <v>23000005</v>
@@ -1386,10 +1386,10 @@
         <v>9321270</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="5">
         <v>842212.06</v>
@@ -1400,10 +1400,10 @@
         <v>9334530</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="6">
         <v>14000000</v>
@@ -1414,10 +1414,10 @@
         <v>9337957</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="5">
         <v>470156273.05000001</v>
@@ -1428,10 +1428,10 @@
         <v>9341846</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="5">
         <v>13900000</v>
@@ -1442,10 +1442,10 @@
         <v>9342884</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="5">
         <v>68000000</v>
@@ -1456,10 +1456,10 @@
         <v>9361779</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="6">
         <v>164460000</v>
@@ -1470,10 +1470,10 @@
         <v>9345390</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6">
         <v>24164127.77</v>
@@ -1485,10 +1485,10 @@
         <v>9345097</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="6">
         <v>3091752</v>
@@ -1499,10 +1499,10 @@
         <v>9395028</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D61" s="6">
         <v>262717753.97999999</v>
@@ -1513,10 +1513,10 @@
         <v>9428110</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="8">
         <v>200689167</v>
@@ -1527,10 +1527,10 @@
         <v>9428104</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="6">
         <v>6000000</v>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A377FA-5AB7-4CE8-A058-B288DDD9B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332FA3B-0DA0-420C-B859-E3FE121F8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,6 +46,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
+    <t>projeto</t>
+  </si>
+  <si>
     <t>anexo</t>
   </si>
   <si>
@@ -254,9 +257,6 @@
   </si>
   <si>
     <t>valor_iniciativa</t>
-  </si>
-  <si>
-    <t>iniciativa</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,16 +654,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -671,10 +671,10 @@
         <v>9288130</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5">
         <v>1195796000</v>
@@ -685,10 +685,10 @@
         <v>9288130</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>450000000</v>
@@ -699,10 +699,10 @@
         <v>9288132</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>270000000</v>
@@ -713,10 +713,10 @@
         <v>9288133</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
         <v>776000000</v>
@@ -727,10 +727,10 @@
         <v>9288134</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5">
         <v>118860000</v>
@@ -741,10 +741,10 @@
         <v>9288135</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5">
         <v>1345000</v>
@@ -755,10 +755,10 @@
         <v>9288136</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5">
         <v>111480000</v>
@@ -769,10 +769,10 @@
         <v>9288137</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5">
         <v>98100000</v>
@@ -783,10 +783,10 @@
         <v>9288138</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5">
         <v>38614000</v>
@@ -797,10 +797,10 @@
         <v>9288139</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5">
         <v>4400000</v>
@@ -811,10 +811,10 @@
         <v>9288141</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5">
         <v>500000</v>
@@ -825,10 +825,10 @@
         <v>9288142</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5">
         <v>36712000</v>
@@ -839,10 +839,10 @@
         <v>9288143</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5">
         <v>728000</v>
@@ -853,10 +853,10 @@
         <v>9288144</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5">
         <v>49000000</v>
@@ -867,10 +867,10 @@
         <v>9288145</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5">
         <v>45345000</v>
@@ -881,10 +881,10 @@
         <v>9288147</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5">
         <v>14817323</v>
@@ -895,10 +895,10 @@
         <v>9288148</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="5">
         <v>4000000</v>
@@ -909,10 +909,10 @@
         <v>9288149</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="5">
         <v>5000000</v>
@@ -923,10 +923,10 @@
         <v>9288150</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="5">
         <v>10671300</v>
@@ -937,10 +937,10 @@
         <v>9288152</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="5">
         <v>15130000</v>
@@ -951,10 +951,10 @@
         <v>9288153</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5">
         <v>3000000</v>
@@ -965,10 +965,10 @@
         <v>9288154</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="5">
         <v>650000</v>
@@ -979,10 +979,10 @@
         <v>9288155</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5">
         <v>5550438.4000000004</v>
@@ -993,10 +993,10 @@
         <v>9288167</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="5">
         <v>3773400</v>
@@ -1007,10 +1007,10 @@
         <v>9288168</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="5">
         <v>130000000</v>
@@ -1021,10 +1021,10 @@
         <v>9288169</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="5">
         <v>16112602.23</v>
@@ -1035,10 +1035,10 @@
         <v>9288176</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="5">
         <v>40729352.109999999</v>
@@ -1049,10 +1049,10 @@
         <v>9288177</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>9288178</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="5">
         <v>253000000</v>
@@ -1077,10 +1077,10 @@
         <v>9288179</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="5">
         <v>45000000</v>
@@ -1091,10 +1091,10 @@
         <v>9288180</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="5">
         <v>3072030000</v>
@@ -1105,10 +1105,10 @@
         <v>9288181</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="5">
         <v>75352000</v>
@@ -1120,10 +1120,10 @@
         <v>9288182</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="5">
         <v>7000000</v>
@@ -1134,10 +1134,10 @@
         <v>9288183</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="5">
         <v>9302249.2699999996</v>
@@ -1148,10 +1148,10 @@
         <v>9288185</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="5">
         <v>2000000</v>
@@ -1162,10 +1162,10 @@
         <v>9288186</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="5">
         <v>3000000</v>
@@ -1176,10 +1176,10 @@
         <v>9288187</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="5">
         <v>36000000</v>
@@ -1190,10 +1190,10 @@
         <v>9288188</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="5">
         <v>8647600</v>
@@ -1204,10 +1204,10 @@
         <v>9288189</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="5">
         <v>300000</v>
@@ -1218,10 +1218,10 @@
         <v>9288190</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" s="5">
         <v>100000000</v>
@@ -1232,10 +1232,10 @@
         <v>9288191</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="5">
         <v>210000000</v>
@@ -1246,10 +1246,10 @@
         <v>9288192</v>
       </c>
       <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
         <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
       </c>
       <c r="D43" s="5">
         <v>100000000</v>
@@ -1260,10 +1260,10 @@
         <v>9288193</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="5">
         <v>3900000</v>
@@ -1274,10 +1274,10 @@
         <v>9288194</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="5">
         <v>3600000</v>
@@ -1288,10 +1288,10 @@
         <v>9288195</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="5">
         <v>749679</v>
@@ -1302,10 +1302,10 @@
         <v>9288196</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="5">
         <v>42412000</v>
@@ -1316,10 +1316,10 @@
         <v>9288198</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="5">
         <v>986059044</v>
@@ -1330,10 +1330,10 @@
         <v>9288210</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="5">
         <v>2500000</v>
@@ -1344,10 +1344,10 @@
         <v>9288211</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="5">
         <v>3200000</v>
@@ -1358,10 +1358,10 @@
         <v>9288212</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="5">
         <v>2427295557.9000001</v>
@@ -1372,10 +1372,10 @@
         <v>9288213</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="5">
         <v>23000005</v>
@@ -1386,10 +1386,10 @@
         <v>9321270</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="5">
         <v>842212.06</v>
@@ -1400,10 +1400,10 @@
         <v>9334530</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="6">
         <v>14000000</v>
@@ -1414,10 +1414,10 @@
         <v>9337957</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" s="5">
         <v>470156273.05000001</v>
@@ -1428,10 +1428,10 @@
         <v>9341846</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="5">
         <v>13900000</v>
@@ -1442,10 +1442,10 @@
         <v>9342884</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="5">
         <v>68000000</v>
@@ -1456,10 +1456,10 @@
         <v>9361779</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6">
         <v>164460000</v>
@@ -1470,10 +1470,10 @@
         <v>9345390</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
         <v>24164127.77</v>
@@ -1485,10 +1485,10 @@
         <v>9345097</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6">
         <v>3091752</v>
@@ -1499,10 +1499,10 @@
         <v>9395028</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D61" s="6">
         <v>262717753.97999999</v>
@@ -1513,10 +1513,10 @@
         <v>9428110</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" s="8">
         <v>200689167</v>
@@ -1527,10 +1527,10 @@
         <v>9428104</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" s="6">
         <v>6000000</v>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332FA3B-0DA0-420C-B859-E3FE121F8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D091A-12E1-43EF-B1AE-F42F0FD33646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
-    <t>projeto</t>
-  </si>
-  <si>
     <t>anexo</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>valor_iniciativa</t>
+  </si>
+  <si>
+    <t>iniciativa</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,16 +654,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -671,10 +671,10 @@
         <v>9288130</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5">
         <v>1195796000</v>
@@ -685,10 +685,10 @@
         <v>9288130</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>450000000</v>
@@ -699,10 +699,10 @@
         <v>9288132</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>270000000</v>
@@ -713,10 +713,10 @@
         <v>9288133</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>776000000</v>
@@ -727,10 +727,10 @@
         <v>9288134</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
         <v>118860000</v>
@@ -741,10 +741,10 @@
         <v>9288135</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>1345000</v>
@@ -755,10 +755,10 @@
         <v>9288136</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>111480000</v>
@@ -769,10 +769,10 @@
         <v>9288137</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5">
         <v>98100000</v>
@@ -783,10 +783,10 @@
         <v>9288138</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
         <v>38614000</v>
@@ -797,10 +797,10 @@
         <v>9288139</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
         <v>4400000</v>
@@ -811,10 +811,10 @@
         <v>9288141</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5">
         <v>500000</v>
@@ -825,10 +825,10 @@
         <v>9288142</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5">
         <v>36712000</v>
@@ -839,10 +839,10 @@
         <v>9288143</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
         <v>728000</v>
@@ -853,10 +853,10 @@
         <v>9288144</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5">
         <v>49000000</v>
@@ -867,10 +867,10 @@
         <v>9288145</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="5">
         <v>45345000</v>
@@ -881,10 +881,10 @@
         <v>9288147</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5">
         <v>14817323</v>
@@ -895,10 +895,10 @@
         <v>9288148</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5">
         <v>4000000</v>
@@ -909,10 +909,10 @@
         <v>9288149</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5">
         <v>5000000</v>
@@ -923,10 +923,10 @@
         <v>9288150</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5">
         <v>10671300</v>
@@ -937,10 +937,10 @@
         <v>9288152</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5">
         <v>15130000</v>
@@ -951,10 +951,10 @@
         <v>9288153</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5">
         <v>3000000</v>
@@ -965,10 +965,10 @@
         <v>9288154</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5">
         <v>650000</v>
@@ -979,10 +979,10 @@
         <v>9288155</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5">
         <v>5550438.4000000004</v>
@@ -993,10 +993,10 @@
         <v>9288167</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5">
         <v>3773400</v>
@@ -1007,10 +1007,10 @@
         <v>9288168</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5">
         <v>130000000</v>
@@ -1021,10 +1021,10 @@
         <v>9288169</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5">
         <v>16112602.23</v>
@@ -1035,10 +1035,10 @@
         <v>9288176</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5">
         <v>40729352.109999999</v>
@@ -1049,10 +1049,10 @@
         <v>9288177</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>9288178</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="5">
         <v>253000000</v>
@@ -1077,10 +1077,10 @@
         <v>9288179</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="5">
         <v>45000000</v>
@@ -1091,10 +1091,10 @@
         <v>9288180</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="5">
         <v>3072030000</v>
@@ -1105,10 +1105,10 @@
         <v>9288181</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="5">
         <v>75352000</v>
@@ -1120,10 +1120,10 @@
         <v>9288182</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="5">
         <v>7000000</v>
@@ -1134,10 +1134,10 @@
         <v>9288183</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="5">
         <v>9302249.2699999996</v>
@@ -1148,10 +1148,10 @@
         <v>9288185</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="5">
         <v>2000000</v>
@@ -1162,10 +1162,10 @@
         <v>9288186</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="5">
         <v>3000000</v>
@@ -1176,10 +1176,10 @@
         <v>9288187</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="5">
         <v>36000000</v>
@@ -1190,10 +1190,10 @@
         <v>9288188</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="5">
         <v>8647600</v>
@@ -1204,10 +1204,10 @@
         <v>9288189</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="5">
         <v>300000</v>
@@ -1218,10 +1218,10 @@
         <v>9288190</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5">
         <v>100000000</v>
@@ -1232,10 +1232,10 @@
         <v>9288191</v>
       </c>
       <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
         <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
       </c>
       <c r="D42" s="5">
         <v>210000000</v>
@@ -1246,10 +1246,10 @@
         <v>9288192</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="5">
         <v>100000000</v>
@@ -1260,10 +1260,10 @@
         <v>9288193</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="5">
         <v>3900000</v>
@@ -1274,10 +1274,10 @@
         <v>9288194</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="5">
         <v>3600000</v>
@@ -1288,10 +1288,10 @@
         <v>9288195</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="5">
         <v>749679</v>
@@ -1302,10 +1302,10 @@
         <v>9288196</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="5">
         <v>42412000</v>
@@ -1316,10 +1316,10 @@
         <v>9288198</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="5">
         <v>986059044</v>
@@ -1330,10 +1330,10 @@
         <v>9288210</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="5">
         <v>2500000</v>
@@ -1344,10 +1344,10 @@
         <v>9288211</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="5">
         <v>3200000</v>
@@ -1358,10 +1358,10 @@
         <v>9288212</v>
       </c>
       <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
         <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="5">
         <v>2427295557.9000001</v>
@@ -1372,10 +1372,10 @@
         <v>9288213</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="5">
         <v>23000005</v>
@@ -1386,10 +1386,10 @@
         <v>9321270</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="5">
         <v>842212.06</v>
@@ -1400,10 +1400,10 @@
         <v>9334530</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="6">
         <v>14000000</v>
@@ -1414,10 +1414,10 @@
         <v>9337957</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="5">
         <v>470156273.05000001</v>
@@ -1428,10 +1428,10 @@
         <v>9341846</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="5">
         <v>13900000</v>
@@ -1442,10 +1442,10 @@
         <v>9342884</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="5">
         <v>68000000</v>
@@ -1456,10 +1456,10 @@
         <v>9361779</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="6">
         <v>164460000</v>
@@ -1470,10 +1470,10 @@
         <v>9345390</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6">
         <v>24164127.77</v>
@@ -1485,10 +1485,10 @@
         <v>9345097</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="6">
         <v>3091752</v>
@@ -1499,10 +1499,10 @@
         <v>9395028</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D61" s="6">
         <v>262717753.97999999</v>
@@ -1513,10 +1513,10 @@
         <v>9428110</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="8">
         <v>200689167</v>
@@ -1527,10 +1527,10 @@
         <v>9428104</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="6">
         <v>6000000</v>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27929"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D091A-12E1-43EF-B1AE-F42F0FD33646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8207D2-F431-4443-8C8E-823816D2366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,11 +44,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+  <si>
+    <t>codigo_iniciativa</t>
+  </si>
+  <si>
+    <t>iniciativa</t>
+  </si>
   <si>
     <t>anexo</t>
   </si>
   <si>
+    <t>valor_iniciativa</t>
+  </si>
+  <si>
     <t>Melhoria da infraestrutura dos municípios</t>
   </si>
   <si>
@@ -250,13 +259,13 @@
     <t>Melhoria da infraestrutura dos municípios – Adequação de serviços de transporte fluvial em Morada Nova de Minas</t>
   </si>
   <si>
-    <t>codigo_iniciativa</t>
-  </si>
-  <si>
-    <t>valor_iniciativa</t>
-  </si>
-  <si>
-    <t>iniciativa</t>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>Melhoria da infraestrutura dos municípios – Fortalecimento do transporte metropolitano</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -267,7 +276,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +342,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,910 +644,925 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="3"/>
-    <col min="6" max="6" width="16.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="4" max="4" width="20.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>9288130</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5">
         <v>1195796000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>9288130</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>450000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>9288132</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>270000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>410000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>9288133</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>776000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>887000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>9288134</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>118860000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>9288135</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
         <v>1345000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>9288136</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>111480000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>9288137</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
         <v>98100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>9288138</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
         <v>38614000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>9288139</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
         <v>4400000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <v>9288141</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5">
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>9288142</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5">
         <v>36712000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>9288143</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5">
         <v>728000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>9288144</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5">
         <v>49000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4">
         <v>9288145</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>45345000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>9288147</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5">
         <v>14817323</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>9288148</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5">
         <v>4000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>9288149</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5">
         <v>5000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4">
         <v>9288150</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5">
         <v>10671300</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>9288152</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" s="5">
         <v>15130000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>9288153</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" s="5">
         <v>3000000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4">
         <v>9288154</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
         <v>650000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>9288155</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="5">
         <v>5550438.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <v>9288167</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" s="5">
         <v>3773400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4">
         <v>9288168</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5">
         <v>130000000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4">
         <v>9288169</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5">
         <v>16112602.23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4">
         <v>9288176</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="5">
         <v>40729352.109999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4">
         <v>9288177</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4">
         <v>9288178</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" s="5">
         <v>253000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4">
         <v>9288179</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" s="5">
         <v>45000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4">
         <v>9288180</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D32" s="5">
         <v>3072030000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4">
         <v>9288181</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" s="5">
         <v>75352000</v>
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4">
         <v>9288182</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" s="5">
         <v>7000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4">
         <v>9288183</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" s="5">
-        <v>9302249.2699999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4">
         <v>9288185</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" s="5">
         <v>2000000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4">
         <v>9288186</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" s="5">
         <v>3000000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4">
         <v>9288187</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" s="5">
         <v>36000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4">
         <v>9288188</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" s="5">
         <v>8647600</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4">
         <v>9288189</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" s="5">
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4">
         <v>9288190</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D41" s="5">
         <v>100000000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4">
         <v>9288191</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D42" s="5">
         <v>210000000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4">
         <v>9288192</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D43" s="5">
         <v>100000000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4">
         <v>9288193</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" s="5">
         <v>3900000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4">
         <v>9288194</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
         <v>3600000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4">
         <v>9288195</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" s="5">
         <v>749679</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4">
         <v>9288196</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" s="5">
         <v>42412000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4">
         <v>9288198</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" s="5">
         <v>986059044</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4">
         <v>9288210</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" s="5">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4">
         <v>9288211</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4">
         <v>9288212</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D51" s="5">
         <v>2427295557.9000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4">
         <v>9288213</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" s="5">
         <v>23000005</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4">
         <v>9321270</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" s="5">
         <v>842212.06</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A54">
         <v>9334530</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" s="6">
         <v>14000000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A55">
         <v>9337957</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D55" s="5">
         <v>470156273.05000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A56">
         <v>9341846</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" s="5">
         <v>13900000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A57">
         <v>9342884</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" s="5">
         <v>68000000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="7">
         <v>9361779</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D58" s="6">
         <v>164460000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="7">
         <v>9345390</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
         <v>24164127.77</v>
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="28.9">
       <c r="A60" s="7">
         <v>9345097</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" s="6">
         <v>3091752</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.9">
       <c r="A61" s="7">
         <v>9395028</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D61" s="6">
         <v>262717753.97999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="28.9">
       <c r="A62" s="7">
         <v>9428110</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" s="8">
         <v>200689167</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="28.9">
       <c r="A63" s="7">
         <v>9428104</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" s="6">
         <v>6000000</v>
       </c>
     </row>
+    <row r="64" spans="1:6" ht="30.75">
+      <c r="A64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="6">
+        <v>380000000</v>
+      </c>
+    </row>
+    <row r="65" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:H63" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27930"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8207D2-F431-4443-8C8E-823816D2366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4AF597-15CE-4BEB-A716-663278A7AA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
     <t>Melhoria da infraestrutura dos municípios – Adequação de serviços de transporte fluvial em Morada Nova de Minas</t>
   </si>
   <si>
-    <t>0000000</t>
+    <t>9435581</t>
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Fortalecimento do transporte metropolitano</t>
@@ -647,7 +647,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4AF597-15CE-4BEB-A716-663278A7AA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803F674-A904-4995-AD82-85B34D9A8C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-144" yWindow="1200" windowWidth="17280" windowHeight="8880" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iniciativas" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Fortalecimento do transporte metropolitano</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
 </sst>
 </file>
@@ -276,7 +273,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,27 +641,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="20.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="16.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>9288130</v>
       </c>
@@ -692,7 +689,7 @@
         <v>1195796000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>9288130</v>
       </c>
@@ -706,7 +703,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>9288132</v>
       </c>
@@ -720,7 +717,7 @@
         <v>410000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>9288133</v>
       </c>
@@ -734,7 +731,7 @@
         <v>887000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>9288134</v>
       </c>
@@ -748,7 +745,7 @@
         <v>118860000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>9288135</v>
       </c>
@@ -762,7 +759,7 @@
         <v>1345000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>9288136</v>
       </c>
@@ -776,7 +773,7 @@
         <v>111480000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>9288137</v>
       </c>
@@ -790,7 +787,7 @@
         <v>98100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9288138</v>
       </c>
@@ -804,7 +801,7 @@
         <v>38614000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9288139</v>
       </c>
@@ -818,7 +815,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9288141</v>
       </c>
@@ -832,7 +829,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9288142</v>
       </c>
@@ -846,7 +843,7 @@
         <v>36712000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9288143</v>
       </c>
@@ -860,7 +857,7 @@
         <v>728000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>9288144</v>
       </c>
@@ -874,7 +871,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>9288145</v>
       </c>
@@ -888,7 +885,7 @@
         <v>45345000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>9288147</v>
       </c>
@@ -902,7 +899,7 @@
         <v>14817323</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9288148</v>
       </c>
@@ -916,7 +913,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>9288149</v>
       </c>
@@ -930,7 +927,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>9288150</v>
       </c>
@@ -944,7 +941,7 @@
         <v>10671300</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>9288152</v>
       </c>
@@ -958,7 +955,7 @@
         <v>15130000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>9288153</v>
       </c>
@@ -972,7 +969,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>9288154</v>
       </c>
@@ -986,7 +983,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>9288155</v>
       </c>
@@ -1000,7 +997,7 @@
         <v>5550438.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>9288167</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>3773400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>9288168</v>
       </c>
@@ -1028,7 +1025,7 @@
         <v>130000000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>9288169</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>16112602.23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>9288176</v>
       </c>
@@ -1056,7 +1053,7 @@
         <v>40729352.109999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>9288177</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>9288178</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>253000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>9288179</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>9288180</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>3072030000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>9288181</v>
       </c>
@@ -1127,7 +1124,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>9288182</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>9288183</v>
       </c>
@@ -1155,7 +1152,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>9288185</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>9288186</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>9288187</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>9288188</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>8647600</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>9288189</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>9288190</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>9288191</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>210000000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>9288192</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>9288193</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>9288194</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>9288195</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>749679</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>9288196</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>42412000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>9288198</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>986059044</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>9288210</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>9288211</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>9288212</v>
       </c>
@@ -1379,7 +1376,7 @@
         <v>2427295557.9000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>9288213</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>23000005</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>9321270</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>842212.06</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9334530</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>9337957</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>470156273.05000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>9341846</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>9342884</v>
       </c>
@@ -1463,7 +1460,7 @@
         <v>68000000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>9361779</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>164460000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>9345390</v>
       </c>
@@ -1492,7 +1489,7 @@
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="28.9">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>9345097</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>3091752</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.9">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>9395028</v>
       </c>
@@ -1520,7 +1517,7 @@
         <v>262717753.97999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.9">
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>9428110</v>
       </c>
@@ -1534,7 +1531,7 @@
         <v>200689167</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28.9">
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>9428104</v>
       </c>
@@ -1548,7 +1545,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30.75">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>71</v>
       </c>
@@ -1556,13 +1553,12 @@
         <v>72</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D64" s="6">
         <v>380000000</v>
       </c>
     </row>
-    <row r="65" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:H63" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803F674-A904-4995-AD82-85B34D9A8C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17EB8F-F775-401D-A29D-CA172CB46743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="1200" windowWidth="17280" windowHeight="8880" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iniciativas" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Fortalecimento do transporte metropolitano</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1556,7 @@
         <v>72</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D64" s="6">
         <v>380000000</v>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28209"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17EB8F-F775-401D-A29D-CA172CB46743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD3A432-DA27-4CA3-BD8E-76713D7823EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -127,7 +127,7 @@
     <t>Pesquisas, Tendências e Monitoramento da Cultura e do Turismo</t>
   </si>
   <si>
-    <t>Plano de Desenvolvimento Integrado do Turismo em Minas Gerais</t>
+    <t>Plano Diretor do Turismo Verde em Minas Gerais - Plano de Desenvolvimento Integrado do Turismo Sustentável de Minas Gerais</t>
   </si>
   <si>
     <t>Fortalecimento e reestruturação tecnológica da Controladoria Geral do Estado</t>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Melhoria da infraestrutura dos municípios – Melhoria da oferta e do acesso à saúde da população de Juiz de Fora e Zona da Mata</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,27 +647,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="3"/>
-    <col min="6" max="6" width="16.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="4" max="4" width="20.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>9288130</v>
       </c>
@@ -692,7 +695,7 @@
         <v>1195796000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>9288130</v>
       </c>
@@ -706,7 +709,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>9288132</v>
       </c>
@@ -720,7 +723,7 @@
         <v>410000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>9288133</v>
       </c>
@@ -734,7 +737,7 @@
         <v>887000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>9288134</v>
       </c>
@@ -748,7 +751,7 @@
         <v>118860000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>9288135</v>
       </c>
@@ -762,7 +765,7 @@
         <v>1345000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>9288136</v>
       </c>
@@ -776,7 +779,7 @@
         <v>111480000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>9288137</v>
       </c>
@@ -790,7 +793,7 @@
         <v>98100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>9288138</v>
       </c>
@@ -804,7 +807,7 @@
         <v>38614000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>9288139</v>
       </c>
@@ -818,7 +821,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <v>9288141</v>
       </c>
@@ -832,7 +835,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>9288142</v>
       </c>
@@ -846,7 +849,7 @@
         <v>36712000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>9288143</v>
       </c>
@@ -860,7 +863,7 @@
         <v>728000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>9288144</v>
       </c>
@@ -874,7 +877,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4">
         <v>9288145</v>
       </c>
@@ -888,7 +891,7 @@
         <v>45345000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>9288147</v>
       </c>
@@ -902,7 +905,7 @@
         <v>14817323</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>9288148</v>
       </c>
@@ -916,7 +919,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>9288149</v>
       </c>
@@ -930,7 +933,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4">
         <v>9288150</v>
       </c>
@@ -944,7 +947,7 @@
         <v>10671300</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>9288152</v>
       </c>
@@ -958,7 +961,7 @@
         <v>15130000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>9288153</v>
       </c>
@@ -972,7 +975,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4">
         <v>9288154</v>
       </c>
@@ -986,7 +989,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>9288155</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>5550438.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <v>9288167</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>3773400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4">
         <v>9288168</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>130000000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4">
         <v>9288169</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>16112602.23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4">
         <v>9288176</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>40729352.109999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4">
         <v>9288177</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4">
         <v>9288178</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>253000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4">
         <v>9288179</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4">
         <v>9288180</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>3072030000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4">
         <v>9288181</v>
       </c>
@@ -1127,7 +1130,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4">
         <v>9288182</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4">
         <v>9288183</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4">
         <v>9288185</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4">
         <v>9288186</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4">
         <v>9288187</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4">
         <v>9288188</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>8647600</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4">
         <v>9288189</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4">
         <v>9288190</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4">
         <v>9288191</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>210000000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4">
         <v>9288192</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4">
         <v>9288193</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4">
         <v>9288194</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4">
         <v>9288195</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>749679</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4">
         <v>9288196</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>42412000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4">
         <v>9288198</v>
       </c>
@@ -1334,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="D48" s="5">
-        <v>986059044</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>836059044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4">
         <v>9288210</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4">
         <v>9288211</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4">
         <v>9288212</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>2427295557.9000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4">
         <v>9288213</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>23000005</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4">
         <v>9321270</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>842212.06</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A54">
         <v>9334530</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A55">
         <v>9337957</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>470156273.05000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A56">
         <v>9341846</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A57">
         <v>9342884</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>68000000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="7">
         <v>9361779</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>164460000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="7">
         <v>9345390</v>
       </c>
@@ -1492,7 +1495,7 @@
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30.75">
       <c r="A60" s="7">
         <v>9345097</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>3091752</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30.75">
       <c r="A61" s="7">
         <v>9395028</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>262717753.97999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30.75">
       <c r="A62" s="7">
         <v>9428110</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>200689167</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30.75">
       <c r="A63" s="7">
         <v>9428104</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30.75">
       <c r="A64" s="11" t="s">
         <v>71</v>
       </c>
@@ -1562,6 +1565,21 @@
         <v>380000000</v>
       </c>
     </row>
+    <row r="65" spans="1:4" ht="30.75">
+      <c r="A65" s="7">
+        <v>9440688</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:H63" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD3A432-DA27-4CA3-BD8E-76713D7823EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB90BBF6-D26F-4ED9-ADAB-1777F3F2802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1379,7 +1379,7 @@
         <v>57</v>
       </c>
       <c r="D51" s="5">
-        <v>2427295557.9000001</v>
+        <v>2427295557.8899999</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB90BBF6-D26F-4ED9-ADAB-1777F3F2802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D53E08-1072-4A35-9C77-5B2FA58FC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,7 +1562,7 @@
         <v>73</v>
       </c>
       <c r="D64" s="6">
-        <v>380000000</v>
+        <v>393211725.25</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30.75">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28801"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D53E08-1072-4A35-9C77-5B2FA58FC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7815F2-B2AB-4D9B-9CD1-70DEE6B8978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Fortalecimento do transporte metropolitano</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Melhoria da oferta e do acesso à saúde da população de Juiz de Fora e Zona da Mata</t>
@@ -649,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1559,7 +1556,7 @@
         <v>72</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D64" s="6">
         <v>393211725.25</v>
@@ -1570,7 +1567,7 @@
         <v>9440688</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28801"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\acordo-judicial-reparacao-vale-projetos\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x13340451\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7815F2-B2AB-4D9B-9CD1-70DEE6B8978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8100" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="iniciativas" sheetId="9" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="projetos">'[1]Tabela 1 - Projetos com valor'!$C$4:$D$64</definedName>
     <definedName name="SITE">iniciativas!$B$2:$D$61</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -266,17 +265,26 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Melhoria da oferta e do acesso à saúde da população de Juiz de Fora e Zona da Mata</t>
+  </si>
+  <si>
+    <t>A criar</t>
+  </si>
+  <si>
+    <t>Melhoria da infraestrutura dos municípios – Fortalecimento do saneamento básico de Mário Campos</t>
+  </si>
+  <si>
+    <t>Elaboração de projetos rodoviários - Brumadinho-Mário Campos-BR381</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,7 +373,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabela 1 - Projetos com valor"/>
@@ -643,14 +651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
@@ -664,7 +672,7 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>9288130</v>
       </c>
@@ -692,7 +700,7 @@
         <v>1195796000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>9288130</v>
       </c>
@@ -706,7 +714,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>9288132</v>
       </c>
@@ -720,7 +728,7 @@
         <v>410000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>9288133</v>
       </c>
@@ -734,7 +742,7 @@
         <v>887000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>9288134</v>
       </c>
@@ -748,7 +756,7 @@
         <v>118860000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>9288135</v>
       </c>
@@ -762,7 +770,7 @@
         <v>1345000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>9288136</v>
       </c>
@@ -776,7 +784,7 @@
         <v>111480000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9288137</v>
       </c>
@@ -790,7 +798,7 @@
         <v>98100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9288138</v>
       </c>
@@ -804,7 +812,7 @@
         <v>38614000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9288139</v>
       </c>
@@ -818,7 +826,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9288141</v>
       </c>
@@ -832,7 +840,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9288142</v>
       </c>
@@ -846,7 +854,7 @@
         <v>36712000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9288143</v>
       </c>
@@ -860,7 +868,7 @@
         <v>728000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>9288144</v>
       </c>
@@ -874,7 +882,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>9288145</v>
       </c>
@@ -888,7 +896,7 @@
         <v>45345000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>9288147</v>
       </c>
@@ -902,7 +910,7 @@
         <v>14817323</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9288148</v>
       </c>
@@ -916,7 +924,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>9288149</v>
       </c>
@@ -930,7 +938,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>9288150</v>
       </c>
@@ -944,7 +952,7 @@
         <v>10671300</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>9288152</v>
       </c>
@@ -958,7 +966,7 @@
         <v>15130000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>9288153</v>
       </c>
@@ -972,7 +980,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9288154</v>
       </c>
@@ -986,7 +994,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>9288155</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>5550438.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>9288167</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>3773400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>9288168</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>130000000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>9288169</v>
       </c>
@@ -1042,7 +1050,7 @@
         <v>16112602.23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>9288176</v>
       </c>
@@ -1056,7 +1064,7 @@
         <v>40729352.109999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>9288177</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>9288178</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>253000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>9288179</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>9288180</v>
       </c>
@@ -1112,7 +1120,7 @@
         <v>3072030000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>9288181</v>
       </c>
@@ -1127,7 +1135,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>9288182</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>9288183</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>9288185</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>9288186</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>9288187</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>9288188</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>8647600</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9288189</v>
       </c>
@@ -1225,7 +1233,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>9288190</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>9288191</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>210000000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>9288192</v>
       </c>
@@ -1267,7 +1275,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>9288193</v>
       </c>
@@ -1281,7 +1289,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>9288194</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>9288195</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>749679</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>9288196</v>
       </c>
@@ -1323,7 +1331,7 @@
         <v>42412000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>9288198</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>836059044</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>9288210</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>9288211</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>9288212</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>2427295557.8899999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>9288213</v>
       </c>
@@ -1393,7 +1401,7 @@
         <v>23000005</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>9321270</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>842212.06</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9334530</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9337957</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>470156273.05000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9341846</v>
       </c>
@@ -1449,7 +1457,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9342884</v>
       </c>
@@ -1463,7 +1471,7 @@
         <v>68000000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>9361779</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v>164460000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>9345390</v>
       </c>
@@ -1492,7 +1500,7 @@
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="30.75">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>9345097</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>3091752</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30.75">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>9395028</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>262717753.97999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30.75">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>9428110</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>200689167</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30.75">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>9428104</v>
       </c>
@@ -1548,7 +1556,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30.75">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>71</v>
       </c>
@@ -1562,7 +1570,7 @@
         <v>393211725.25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30.75">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>9440688</v>
       </c>
@@ -1576,10 +1584,37 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15"/>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10000000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H63" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">
+  <autoFilter ref="A1:H63"/>
+  <sortState ref="A2:D58">
     <sortCondition ref="A1:A58"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Melhoria da oferta e do acesso à saúde da população de Juiz de Fora e Zona da Mata</t>
-  </si>
-  <si>
-    <t>A criar</t>
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Fortalecimento do saneamento básico de Mário Campos</t>
@@ -432,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -467,7 +464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -655,7 +652,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,11 +1582,9 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -1599,11 +1594,9 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="A67" s="11"/>
       <c r="B67" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -265,12 +265,6 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Melhoria da oferta e do acesso à saúde da população de Juiz de Fora e Zona da Mata</t>
-  </si>
-  <si>
-    <t>Melhoria da infraestrutura dos municípios – Fortalecimento do saneamento básico de Mário Campos</t>
-  </si>
-  <si>
-    <t>Elaboração de projetos rodoviários - Brumadinho-Mário Campos-BR381</t>
   </si>
 </sst>
 </file>
@@ -652,7 +646,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,29 +1575,11 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="6">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="6">
-        <v>10000000</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H63"/>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8100" tabRatio="867"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="8310" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="iniciativas" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios – Melhoria da oferta e do acesso à saúde da população de Juiz de Fora e Zona da Mata</t>
+  </si>
+  <si>
+    <t>9468204</t>
+  </si>
+  <si>
+    <t>Elaboração de projetos rodoviários - Brumadinho-Mário Campos-BR381</t>
+  </si>
+  <si>
+    <t>9468058</t>
+  </si>
+  <si>
+    <t>Melhoria da infraestrutura dos municípios - Fortalecimento do saneamento básico de Mário Campos</t>
   </si>
 </sst>
 </file>
@@ -645,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,11 +1587,33 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10000000</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H63"/>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="8310" tabRatio="867"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8100" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="iniciativas" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Implantação do Sistema de Informações Regulatórias da ARSAE-MG</t>
   </si>
   <si>
-    <t>Reestruturação dos Hospitais da Rede FHEMIG (Hospital Infantil João Paulo II, Hospital João XXIII e Hospital Júlia Kubitschek)</t>
-  </si>
-  <si>
     <t>Ampliação da rede de rádio digital no interior do Estado de Minas Gerais</t>
   </si>
   <si>
@@ -277,6 +274,18 @@
   </si>
   <si>
     <t>Melhoria da infraestrutura dos municípios - Fortalecimento do saneamento básico de Mário Campos</t>
+  </si>
+  <si>
+    <t>Reestruturação dos Hospitais da Rede FHEMIG</t>
+  </si>
+  <si>
+    <t>Estrada Distrito Industrial de Brumadinho – BR 381 - conversão </t>
+  </si>
+  <si>
+    <t>I.4</t>
+  </si>
+  <si>
+    <t>Estrada Distrito Industrial de Brumadinho – BR 381 - reaplicação </t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +307,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,6 +373,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5">
-        <v>118860000</v>
+        <v>140860000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +795,7 @@
         <v>9288136</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -792,7 +809,7 @@
         <v>9288137</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -806,7 +823,7 @@
         <v>9288138</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -820,7 +837,7 @@
         <v>9288139</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -834,7 +851,7 @@
         <v>9288141</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -848,7 +865,7 @@
         <v>9288142</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -862,13 +879,13 @@
         <v>9288143</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>728000</v>
+        <v>722675.44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,7 +893,7 @@
         <v>9288144</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -890,7 +907,7 @@
         <v>9288145</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -904,7 +921,7 @@
         <v>9288147</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -918,7 +935,7 @@
         <v>9288148</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -932,7 +949,7 @@
         <v>9288149</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -946,13 +963,13 @@
         <v>9288150</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="5">
-        <v>10671300</v>
+        <v>10650450</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -960,7 +977,7 @@
         <v>9288152</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -974,7 +991,7 @@
         <v>9288153</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -988,7 +1005,7 @@
         <v>9288154</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1002,7 +1019,7 @@
         <v>9288155</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1016,7 +1033,7 @@
         <v>9288167</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1030,7 +1047,7 @@
         <v>9288168</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1044,7 +1061,7 @@
         <v>9288169</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1058,7 +1075,7 @@
         <v>9288176</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1072,7 +1089,7 @@
         <v>9288177</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1086,7 +1103,7 @@
         <v>9288178</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1100,7 +1117,7 @@
         <v>9288179</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1114,7 +1131,7 @@
         <v>9288180</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1128,7 +1145,7 @@
         <v>9288181</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1143,7 +1160,7 @@
         <v>9288182</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1157,7 +1174,7 @@
         <v>9288183</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1171,7 +1188,7 @@
         <v>9288185</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1185,7 +1202,7 @@
         <v>9288186</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1199,7 +1216,7 @@
         <v>9288187</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1213,7 +1230,7 @@
         <v>9288188</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1227,7 +1244,7 @@
         <v>9288189</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1241,10 +1258,10 @@
         <v>9288190</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="5">
         <v>100000000</v>
@@ -1255,13 +1272,13 @@
         <v>9288191</v>
       </c>
       <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
       <c r="D42" s="5">
-        <v>210000000</v>
+        <v>160773401.72</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,10 +1286,10 @@
         <v>9288192</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="5">
         <v>100000000</v>
@@ -1283,7 +1300,7 @@
         <v>9288193</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1297,7 +1314,7 @@
         <v>9288194</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1311,7 +1328,7 @@
         <v>9288195</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1325,7 +1342,7 @@
         <v>9288196</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1339,7 +1356,7 @@
         <v>9288198</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1353,7 +1370,7 @@
         <v>9288210</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1367,7 +1384,7 @@
         <v>9288211</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1381,10 +1398,10 @@
         <v>9288212</v>
       </c>
       <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
         <v>56</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
       </c>
       <c r="D51" s="5">
         <v>2427295557.8899999</v>
@@ -1395,7 +1412,7 @@
         <v>9288213</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1409,7 +1426,7 @@
         <v>9321270</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1423,7 +1440,7 @@
         <v>9334530</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
@@ -1437,7 +1454,7 @@
         <v>9337957</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1451,13 +1468,13 @@
         <v>9341846</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="5">
-        <v>13900000</v>
+        <v>13899715.6</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,7 +1482,7 @@
         <v>9342884</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1479,7 +1496,7 @@
         <v>9361779</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -1493,7 +1510,7 @@
         <v>9345390</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
@@ -1508,13 +1525,13 @@
         <v>9345097</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>3091752</v>
+        <v>3091703.6</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1522,10 +1539,10 @@
         <v>9395028</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D61" s="6">
         <v>262717753.97999999</v>
@@ -1536,7 +1553,7 @@
         <v>9428110</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
@@ -1550,7 +1567,7 @@
         <v>9428104</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
@@ -1561,16 +1578,16 @@
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="6">
-        <v>393211725.25</v>
+        <v>400295455.63</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1578,7 +1595,7 @@
         <v>9440688</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
@@ -1589,10 +1606,10 @@
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -1603,16 +1620,44 @@
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="6">
         <v>10000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>9447773</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="6">
+        <v>122491729.81999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>9447772</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="6">
+        <v>200000000</v>
       </c>
     </row>
   </sheetData>

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="5">
-        <v>13899715.6</v>
+        <v>13899715.810000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x13340451\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m11483500\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8100" tabRatio="867"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="iniciativas" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Estrada Distrito Industrial de Brumadinho – BR 381 - reaplicação </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -672,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,6 +1663,11 @@
         <v>200000000</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H63"/>
   <sortState ref="A2:D58">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>codigo_iniciativa</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>Estrada Distrito Industrial de Brumadinho – BR 381 - reaplicação </t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -675,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,11 +1660,6 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:H63"/>
   <sortState ref="A2:D58">

--- a/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
+++ b/upload/iniciativas_acordo_judicial_reparacao_vale.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x13340451\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2EF02C2-DD13-42AA-8A68-C41BDA438ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -85,7 +89,7 @@
     <t>Atualização do Plano de Desenvolvimento Urbano Integrado da Região Metropolitana de Belo Horizonte ? PDUI-RMBH</t>
   </si>
   <si>
-    <t>Georreferenciamento de bens culturais protegidos</t>
+    <t xml:space="preserve">Fortalecimento da Política de Patrimônio do Iepha-MG </t>
   </si>
   <si>
     <t>Fortalecimento da estrutura e dos processos do Instituto Mineiro de Agropecuária</t>
@@ -97,7 +101,7 @@
     <t>Construção do Núcleo Integrado de Perícias da Polícia Civil de Minas Gerais</t>
   </si>
   <si>
-    <t>Projeto ABIS - Sistema Automatizado de Identificação Biométrica</t>
+    <t>Emissão de carteiras de identificação</t>
   </si>
   <si>
     <t>Convivência com a Seca - Construção de cisternas</t>
@@ -211,10 +215,10 @@
     <t>II.3</t>
   </si>
   <si>
-    <t>Implantação de Fábrica de Software para construção de sistema de governança ambiental</t>
-  </si>
-  <si>
-    <t>Plano de Desenvolvimento da Cadeia Agropecuária</t>
+    <t xml:space="preserve">Implantação de soluções digitais para fortalecimento da Governança Ambiental no SISEMA </t>
+  </si>
+  <si>
+    <t>Diagnósticos das Cadeias Produtivas Agropecuárias</t>
   </si>
   <si>
     <t>Modernização da identificação civil e criminal - Digitalização do acervo de fichas datiloscópicas e cartões onomásticos</t>
@@ -292,8 +296,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,10 +808,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1127,21 +1131,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="66.140625" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>9288130</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>9288130</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>1195796000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>9288132</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>603000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>9288133</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>1187000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>9288134</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>140860000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>9288135</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>1345000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9288136</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>111480000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9288137</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>98100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9288138</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>38614000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9288139</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9288141</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9288142</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>36712000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9288143</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>722675.44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>9288144</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>9288145</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>45345000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9288147</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>14817323</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>9288148</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>9288149</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>9288150</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>10650450</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>9288152</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>15130000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>9288153</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>9288154</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>9288155</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>5550438.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>9288167</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>3773400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>9288168</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>130000000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>9288169</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>16112602.23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>9288176</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>40729352.109999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>9288177</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>9288178</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>253000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>9288179</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>9288180</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>3072030000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>9288181</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>75352000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>9288182</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>9288183</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>9288185</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>9288186</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>9288187</v>
       </c>
@@ -1673,7 +1677,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>9288188</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>8647600</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>9288189</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>9288190</v>
       </c>
@@ -1715,7 +1719,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>9288191</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>160773401.72</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>9288192</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>9288193</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>9288194</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>9288195</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>749679</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>9288196</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>42412000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>9288198</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>836059044</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>9288210</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>9288211</v>
       </c>
@@ -1841,7 +1845,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>9288212</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>2427295557.8899999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>9288213</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>23000005</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>9321270</v>
       </c>
@@ -1883,7 +1887,7 @@
         <v>842212.06</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>9334530</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>9337957</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>470156273.05000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>9341846</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>13899715.810000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>9342884</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>51000000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>9345097</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>3091703.6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>9345390</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>24164127.77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>9361779</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>164460000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>9395028</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>307500225.61000001</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>9428104</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>9428110</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>200689167</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>9435581</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>402688785.73000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>9440688</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>9447772</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>9447773</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>122491729.81999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>9468058</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>9468204</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>9481527</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>72830000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>9478733</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>4031040</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>9484137</v>
       </c>
@@ -2149,7 +2153,7 @@
         <v>10968960</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>9483933</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>9483938</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>67000000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="D75" s="1"/>
     </row>
   </sheetData>
